--- a/manual/Day02_EPBVA.xlsx
+++ b/manual/Day02_EPBVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tracks\Software Testing\QA-20Days-Portfolio\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4054A333-AC4F-4797-9548-03A71871814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355DFCCD-EEA6-450D-872E-161159C076C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="18600" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -891,8 +891,8 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1045,7 @@
         <v>48</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
         <v>49</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>48</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
@@ -1165,7 +1165,7 @@
         <v>50</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>50</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.2">
@@ -1225,7 +1225,7 @@
         <v>48</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1255,7 +1255,7 @@
         <v>50</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.2">
